--- a/xlsx/罗斯福新政_intext.xlsx
+++ b/xlsx/罗斯福新政_intext.xlsx
@@ -15,999 +15,987 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t>罗斯福新政</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>富兰克林·德拉诺·罗斯福</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_罗斯福新政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>经济政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%AE%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>穷人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>失业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
+  </si>
+  <si>
+    <t>白宫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E6%96%B9</t>
+  </si>
+  <si>
+    <t>美国南方</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国白人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E5%B8%88</t>
+  </si>
+  <si>
+    <t>技师</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%97%8F%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>少数族群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9%E8%80%85</t>
+  </si>
+  <si>
+    <t>保守主义者</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%88%90%E9%95%B7</t>
+  </si>
+  <si>
+    <t>经济成长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%94%BF%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>新政联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>铁路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>工业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E7%B7%8A%E6%80%A5%E6%95%91%E6%8F%B4%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>联邦紧急救援署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Labor_Relations_Act</t>
+  </si>
+  <si>
+    <t>en-National Labor Relations Act</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E4%BA%8B%E4%B8%9A%E6%8C%AF%E5%85%B4%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>公共事业振兴署</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_Security_Act</t>
+  </si>
+  <si>
+    <t>en-Social Security Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Farm_Security_Administration</t>
+  </si>
+  <si>
+    <t>en-Farm Security Administration</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E8%81%94%E5%90%88%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国劳工联合会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E5%B7%A5%E4%BC%9A%E8%81%94%E5%90%88%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>产业工会联合会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91%E4%BF%9D%E8%82%B2%E5%9C%98</t>
+  </si>
+  <si>
+    <t>平民保育团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Recovery_Administration</t>
+  </si>
+  <si>
+    <t>en-National Recovery Administration</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agricultural_Adjustment_Act</t>
+  </si>
+  <si>
+    <t>en-Agricultural Adjustment Act</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
+  </si>
+  <si>
+    <t>违宪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%87%B7%E7%89%B9%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA</t>
+  </si>
+  <si>
+    <t>德怀特·艾森豪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E8%A9%B9%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>林登·詹森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%89%E5%A4%A7%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>伟大社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E5%B0%BC%E5%85%8B%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>理查·尼克森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF-%E6%96%AF%E8%92%82%E6%A0%BC%E7%88%BE%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>格拉斯-斯蒂格尔法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%8D%B1%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>经济危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Emergency_Banking_Act</t>
+  </si>
+  <si>
+    <t>en-Emergency Banking Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Industrial_Recovery_Act</t>
+  </si>
+  <si>
+    <t>en-National Industrial Recovery Act</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+  </si>
+  <si>
+    <t>第二次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国证券交易委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%AD%98%E6%AC%BE%E4%BF%9D%E9%99%A9%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>美国联邦存款保险公司</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_Housing_Authority</t>
+  </si>
+  <si>
+    <t>en-United States Housing Authority</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3%E8%B0%B7%E7%AE%A1%E7%90%86%E5%B1%80</t>
+  </si>
+  <si>
+    <t>田纳西河谷管理局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7P%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>老约瑟夫·P·肯尼迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E4%B8%9D%C2%B7%E7%8F%80%E9%87%91%E6%96%AF</t>
+  </si>
+  <si>
+    <t>弗朗西丝·珀金斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E6%88%B4%E7%BB%B4%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·威廉·戴维斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7E%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
+  </si>
+  <si>
+    <t>艾尔弗雷德·E·史密斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E5%AF%8C%E5%B7%AE%E8%B7%9D</t>
+  </si>
+  <si>
+    <t>贫富差距</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>奥地利经济学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%B5%B7%E8%80%B6%E5%85%8B</t>
+  </si>
+  <si>
+    <t>弗里德里希·海耶克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%91%9E%C2%B7%E7%BE%85%E6%96%AF%E5%B7%B4%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>穆瑞·罗斯巴德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>货币学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>米尔顿·傅利曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%C2%B7%E6%9F%8F%E5%8D%97%E5%85%8B</t>
+  </si>
+  <si>
+    <t>班·柏南克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9C%AC%E4%BD%8D</t>
+  </si>
+  <si>
+    <t>金本位</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A2%85%E7%B4%8D%E5%BE%B7%C2%B7%E5%87%B1%E5%9B%A0%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·梅纳德·凯因斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>工党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%98%82%C2%B7%E5%B8%83%E9%AD%AF%E5%A7%86</t>
+  </si>
+  <si>
+    <t>莱昂·布鲁姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>威玛共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>纳粹党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%89%B9%E5%8B%92</t>
+  </si>
+  <si>
+    <t>希特勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>封闭经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%85%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>西班牙内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%B0%BC%E6%89%98%C2%B7%E5%A2%A8%E7%B4%A2%E9%87%8C%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>本尼托·墨索里尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>法西斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
+  </si>
+  <si>
+    <t>苏联</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%85%83</t>
+  </si>
+  <si>
+    <t>加拿大元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7%E8%B2%9D%E5%BE%B7%E7%A6%8F%E5%BE%B7%C2%B7%E8%B2%9D%E5%85%A7%E7%89%B9</t>
+  </si>
+  <si>
+    <t>理察·贝德福德·贝内特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A7%86%E7%89%B9-%E9%9C%8D%E5%88%A9%E5%85%B3%E7%A8%8E%E6%B3%95</t>
+  </si>
+  <si>
+    <t>斯姆特-霍利关税法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%BB%8B%E7%9F%B3</t>
+  </si>
+  <si>
+    <t>蒋介石</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
+  </si>
+  <si>
+    <t>毛泽东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%C2%B7%E5%A5%87%E5%A4%AB%E5%88%A9</t>
+  </si>
+  <si>
+    <t>班·奇夫利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E6%9D%8E%E6%99%AE%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>沃尔特·李普曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%A8%E5%88%A9%C2%B7%E6%91%A9%E6%A0%B9%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>小亨利·摩根索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%94%A8%E7%B4%A7%E7%BC%A9</t>
+  </si>
+  <si>
+    <t>信用紧缩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%93%A0%E5%85%8C</t>
+  </si>
+  <si>
+    <t>挤兑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%82%89%E8%BE%B9%E8%B0%88%E8%AF%9D</t>
+  </si>
+  <si>
+    <t>炉边谈话</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E5%AD%98%E6%AC%BE%E4%BF%9D%E9%9A%AA%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%81%BF</t>
+  </si>
+  <si>
+    <t>法偿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8C%AF%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>外汇市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1929%E5%B9%B4%E8%8F%AF%E7%88%BE%E8%A1%97%E8%82%A1%E7%81%BD</t>
+  </si>
+  <si>
+    <t>1929年华尔街股灾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1933%E5%B9%B4%E8%AD%89%E5%88%B8%E6%B3%95</t>
+  </si>
+  <si>
+    <t>1933年证券法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第二十一修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E9%98%BF%E5%8A%A0%E5%BE%B7%C2%B7%E5%8D%8E%E8%8E%B1%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>亨利·阿加德·华莱士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%E7%A6%8F%E5%BE%B7%C2%B7%E7%89%B9%E6%A0%BC%E9%9F%8B%E7%88%BE</t>
+  </si>
+  <si>
+    <t>雷克斯福德·特格韦尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%83%E8%BE%B2</t>
+  </si>
+  <si>
+    <t>佃农</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%9F%E5%80%9F</t>
+  </si>
+  <si>
+    <t>租借</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>华盛顿邮报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E7%B7%8A%E7%B8%AE</t>
+  </si>
+  <si>
+    <t>通货紧缩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E5%B0%94</t>
+  </si>
+  <si>
+    <t>卡特尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E8%A1%8C%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>银行业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>联邦储备银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%B7%A5</t>
+  </si>
+  <si>
+    <t>劳工</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
+  </si>
+  <si>
+    <t>最低工资</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E7%B4%A7%E6%80%A5%E6%95%91%E6%B5%8E%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>联邦紧急救济署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C</t>
+  </si>
+  <si>
+    <t>社会保障</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>自由市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
+  </si>
+  <si>
+    <t>路德维希·冯·米塞斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社团主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>小政府主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>自由意志主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%9B%A0%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>凯因斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E8%A3%9C%E8%B2%BC</t>
+  </si>
+  <si>
+    <t>农业补贴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>保罗·克鲁曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>货币主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E6%BA%96%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦准备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%8E%87%E5%B7%A5%E8%B3%87</t>
+  </si>
+  <si>
+    <t>效率工资</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%96%A9%E9%BB%98%E6%96%AF</t>
+  </si>
+  <si>
+    <t>劳伦斯·萨默斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E5%BC%97%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>维克弗斯特大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E8%B0%83%E6%8E%A7</t>
+  </si>
+  <si>
+    <t>宏观调控</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
+  </si>
+  <si>
+    <t>社会福利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>混合经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E6%AD%A5%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>进步主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社会自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:New_Deal</t>
+  </si>
+  <si>
+    <t>Template talk-New Deal</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
+  </si>
+  <si>
+    <t>经济大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%9B%8A%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>智囊团</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/American_Liberty_League</t>
+  </si>
+  <si>
+    <t>en-American Liberty League</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_critics_of_the_New_Deal</t>
+  </si>
+  <si>
+    <t>en-List of critics of the New Deal</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Economy_Act</t>
+  </si>
+  <si>
+    <t>en-Economy Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Civil_Works_Administration</t>
+  </si>
+  <si>
+    <t>en-Civil Works Administration</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Communications_Act_of_1934</t>
+  </si>
+  <si>
+    <t>en-Communications Act of 1934</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Executive_Order_6102</t>
+  </si>
+  <si>
+    <t>en-Executive Order 6102</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Homeowners_Refinancing_Act</t>
+  </si>
+  <si>
+    <t>en-Homeowners Refinancing Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Farm_Credit_Administration</t>
+  </si>
+  <si>
+    <t>en-Farm Credit Administration</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E7%B4%A7%E6%80%A5%E6%95%91%E6%8F%B4%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Frazier%E2%80%93Lemke_Farm_Bankruptcy_Act</t>
+  </si>
+  <si>
+    <t>en-Frazier–Lemke Farm Bankruptcy Act</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF-%E6%96%AF%E8%92%82%E6%A0%BC%E5%B0%94%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Housing_Act_of_1934</t>
+  </si>
+  <si>
+    <t>en-National Housing Act of 1934</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%B7%A5%E7%A8%8B%E7%AE%A1%E7%90%86%E5%B1%80</t>
+  </si>
+  <si>
+    <t>公共工程管理局</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Public_Works_of_Art_Project</t>
+  </si>
+  <si>
+    <t>en-Public Works of Art Project</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Reciprocal_Tariff_Act</t>
+  </si>
+  <si>
+    <t>en-Reciprocal Tariff Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Railroad_Retirement_Act</t>
+  </si>
+  <si>
+    <t>en-Railroad Retirement Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Federal_Art_Project</t>
+  </si>
+  <si>
+    <t>en-Federal Art Project</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Federal_Energy_Regulatory_Commission</t>
+  </si>
+  <si>
+    <t>en-Federal Energy Regulatory Commission</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Federal_Project_Number_One</t>
+  </si>
+  <si>
+    <t>en-Federal Project Number One</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Judicial_Procedures_Reform_Act</t>
+  </si>
+  <si>
+    <t>en-Judicial Procedures Reform Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guffey_Coal_Act</t>
+  </si>
+  <si>
+    <t>en-Guffey Coal Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Labor_Relations_Board</t>
+  </si>
+  <si>
+    <t>en-National Labor Relations Board</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rural_Electrification_Act</t>
+  </si>
+  <si>
+    <t>en-Rural Electrification Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rural_Utilities_Service</t>
+  </si>
+  <si>
+    <t>en-Rural Utilities Service</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E5%AE%89%E5%85%A8%E4%BF%9D%E9%99%A9</t>
+  </si>
+  <si>
+    <t>美国社会安全保险</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Harold_L._Ickes</t>
+  </si>
+  <si>
+    <t>en-Harold L. Ickes</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF</t>
+  </si>
+  <si>
+    <t>哈里·霍普金斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E4%BC%8A%C2%B7%E7%9A%AE%E5%B0%94%E6%96%AF%C2%B7%E6%9C%97</t>
+  </si>
+  <si>
+    <t>休伊·皮尔斯·朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E8%83%A1%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>赫伯特·胡佛</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Robert_F._Wagner</t>
+  </si>
+  <si>
+    <t>en-Robert F. Wagner</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>富兰克林·德拉诺·罗斯福</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_罗斯福新政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>经济政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%AE%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>窮人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>失業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
-  </si>
-  <si>
-    <t>金融</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
-  </si>
-  <si>
-    <t>大蕭條</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國國會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
-  </si>
-  <si>
-    <t>白宮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E6%96%B9</t>
-  </si>
-  <si>
-    <t>美國南方</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美國白人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E5%B8%88</t>
-  </si>
-  <si>
-    <t>技师</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%97%8F%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>少數族群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9%E8%80%85</t>
-  </si>
-  <si>
-    <t>保守主義者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>商業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%88%90%E9%95%B7</t>
-  </si>
-  <si>
-    <t>經濟成長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%94%BF%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>新政聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>鐵路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>工業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>農業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E7%B7%8A%E6%80%A5%E6%95%91%E6%8F%B4%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>聯邦緊急救援署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Labor_Relations_Act</t>
-  </si>
-  <si>
-    <t>en-National Labor Relations Act</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E4%BA%8B%E4%B8%9A%E6%8C%AF%E5%85%B4%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>公共事业振兴署</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_Security_Act</t>
-  </si>
-  <si>
-    <t>en-Social Security Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Farm_Security_Administration</t>
-  </si>
-  <si>
-    <t>en-Farm Security Administration</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E8%81%94%E5%90%88%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国劳工联合会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E5%B7%A5%E4%BC%9A%E8%81%94%E5%90%88%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>产业工会联合会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91%E4%BF%9D%E8%82%B2%E5%9C%98</t>
-  </si>
-  <si>
-    <t>平民保育團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國最高法院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Recovery_Administration</t>
-  </si>
-  <si>
-    <t>en-National Recovery Administration</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agricultural_Adjustment_Act</t>
-  </si>
-  <si>
-    <t>en-Agricultural Adjustment Act</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
-  </si>
-  <si>
-    <t>違憲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%87%B7%E7%89%B9%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA</t>
-  </si>
-  <si>
-    <t>德懷特·艾森豪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E8%A9%B9%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>林登·詹森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%89%E5%A4%A7%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>偉大社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E5%B0%BC%E5%85%8B%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>理查·尼克森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF-%E6%96%AF%E8%92%82%E6%A0%BC%E7%88%BE%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>格拉斯-斯蒂格爾法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%8D%B1%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>经济危机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Emergency_Banking_Act</t>
-  </si>
-  <si>
-    <t>en-Emergency Banking Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Industrial_Recovery_Act</t>
-  </si>
-  <si>
-    <t>en-National Industrial Recovery Act</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
-  </si>
-  <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国证券交易委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%AD%98%E6%AC%BE%E4%BF%9D%E9%99%A9%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>美国联邦存款保险公司</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_Housing_Authority</t>
-  </si>
-  <si>
-    <t>en-United States Housing Authority</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3%E8%B0%B7%E7%AE%A1%E7%90%86%E5%B1%80</t>
-  </si>
-  <si>
-    <t>田納西河谷管理局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7P%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>老约瑟夫·P·肯尼迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E4%B8%9D%C2%B7%E7%8F%80%E9%87%91%E6%96%AF</t>
-  </si>
-  <si>
-    <t>弗朗西丝·珀金斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E6%88%B4%E7%BB%B4%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·威廉·戴维斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7E%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
-  </si>
-  <si>
-    <t>艾爾弗雷德·E·史密斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E5%AF%8C%E5%B7%AE%E8%B7%9D</t>
-  </si>
-  <si>
-    <t>貧富差距</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>奧地利經濟學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%B5%B7%E8%80%B6%E5%85%8B</t>
-  </si>
-  <si>
-    <t>弗里德里希·海耶克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%91%9E%C2%B7%E7%BE%85%E6%96%AF%E5%B7%B4%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>穆瑞·羅斯巴德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>貨幣學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>米爾頓·傅利曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%C2%B7%E6%9F%8F%E5%8D%97%E5%85%8B</t>
-  </si>
-  <si>
-    <t>班·柏南克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9C%AC%E4%BD%8D</t>
-  </si>
-  <si>
-    <t>金本位</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A2%85%E7%B4%8D%E5%BE%B7%C2%B7%E5%87%B1%E5%9B%A0%E6%96%AF</t>
-  </si>
-  <si>
-    <t>約翰·梅納德·凱因斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>工黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%98%82%C2%B7%E5%B8%83%E9%AD%AF%E5%A7%86</t>
-  </si>
-  <si>
-    <t>萊昂·布魯姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>威瑪共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>納粹黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%89%B9%E5%8B%92</t>
-  </si>
-  <si>
-    <t>希特勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>封閉經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%85%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>西班牙內戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%B0%BC%E6%89%98%C2%B7%E5%A2%A8%E7%B4%A2%E9%87%8C%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>本尼托·墨索里尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>法西斯主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
-  </si>
-  <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%85%83</t>
-  </si>
-  <si>
-    <t>加拿大元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7%E8%B2%9D%E5%BE%B7%E7%A6%8F%E5%BE%B7%C2%B7%E8%B2%9D%E5%85%A7%E7%89%B9</t>
-  </si>
-  <si>
-    <t>理察·貝德福德·貝內特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A7%86%E7%89%B9-%E9%9C%8D%E5%88%A9%E5%85%B3%E7%A8%8E%E6%B3%95</t>
-  </si>
-  <si>
-    <t>斯姆特-霍利关税法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%BB%8B%E7%9F%B3</t>
-  </si>
-  <si>
-    <t>蔣介石</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
-  </si>
-  <si>
-    <t>毛澤東</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%C2%B7%E5%A5%87%E5%A4%AB%E5%88%A9</t>
-  </si>
-  <si>
-    <t>班·奇夫利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E6%9D%8E%E6%99%AE%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>沃尔特·李普曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%A8%E5%88%A9%C2%B7%E6%91%A9%E6%A0%B9%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>小亨利·摩根索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%94%A8%E7%B4%A7%E7%BC%A9</t>
-  </si>
-  <si>
-    <t>信用紧缩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%93%A0%E5%85%8C</t>
-  </si>
-  <si>
-    <t>擠兌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%82%89%E8%BE%B9%E8%B0%88%E8%AF%9D</t>
-  </si>
-  <si>
-    <t>炉边谈话</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E5%AD%98%E6%AC%BE%E4%BF%9D%E9%9A%AA%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>美國聯邦存款保險公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%81%BF</t>
-  </si>
-  <si>
-    <t>法偿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8C%AF%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>外匯市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1929%E5%B9%B4%E8%8F%AF%E7%88%BE%E8%A1%97%E8%82%A1%E7%81%BD</t>
-  </si>
-  <si>
-    <t>1929年華爾街股災</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1933%E5%B9%B4%E8%AD%89%E5%88%B8%E6%B3%95</t>
-  </si>
-  <si>
-    <t>1933年證券法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國證券交易委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第二十一修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E9%98%BF%E5%8A%A0%E5%BE%B7%C2%B7%E5%8D%8E%E8%8E%B1%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>亨利·阿加德·华莱士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%E7%A6%8F%E5%BE%B7%C2%B7%E7%89%B9%E6%A0%BC%E9%9F%8B%E7%88%BE</t>
-  </si>
-  <si>
-    <t>雷克斯福德·特格韋爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%83%E8%BE%B2</t>
-  </si>
-  <si>
-    <t>佃農</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%9F%E5%80%9F</t>
-  </si>
-  <si>
-    <t>租借</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>華盛頓郵報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E7%B7%8A%E7%B8%AE</t>
-  </si>
-  <si>
-    <t>通貨緊縮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡特尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E8%A1%8C%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>银行业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91</t>
-  </si>
-  <si>
-    <t>黄金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81</t>
-  </si>
-  <si>
-    <t>货币</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>聯邦儲備銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%B7%A5</t>
-  </si>
-  <si>
-    <t>劳工</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
-  </si>
-  <si>
-    <t>最低工資</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E7%B4%A7%E6%80%A5%E6%95%91%E6%B5%8E%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>联邦紧急救济署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C</t>
-  </si>
-  <si>
-    <t>社会保障</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>工会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>自由市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
-  </si>
-  <si>
-    <t>路德維希·馮·米塞斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社團主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>小政府主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>共產主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>自由意志主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97</t>
-  </si>
-  <si>
-    <t>華爾街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%9B%A0%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>凱因斯主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E8%A3%9C%E8%B2%BC</t>
-  </si>
-  <si>
-    <t>農業補貼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>保羅·克魯曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>貨幣主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E6%BA%96%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦準備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%8E%87%E5%B7%A5%E8%B3%87</t>
-  </si>
-  <si>
-    <t>效率工資</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%96%A9%E9%BB%98%E6%96%AF</t>
-  </si>
-  <si>
-    <t>勞倫斯·薩默斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E5%BC%97%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>维克弗斯特大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E8%B0%83%E6%8E%A7</t>
-  </si>
-  <si>
-    <t>宏观调控</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
-  </si>
-  <si>
-    <t>社會福利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>混合经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E6%AD%A5%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>进步主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:New_Deal</t>
-  </si>
-  <si>
-    <t>Template talk-New Deal</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
-  </si>
-  <si>
-    <t>經濟大蕭條</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%9B%8A%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>智囊团</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/American_Liberty_League</t>
-  </si>
-  <si>
-    <t>en-American Liberty League</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_critics_of_the_New_Deal</t>
-  </si>
-  <si>
-    <t>en-List of critics of the New Deal</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Economy_Act</t>
-  </si>
-  <si>
-    <t>en-Economy Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Civil_Works_Administration</t>
-  </si>
-  <si>
-    <t>en-Civil Works Administration</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Communications_Act_of_1934</t>
-  </si>
-  <si>
-    <t>en-Communications Act of 1934</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Executive_Order_6102</t>
-  </si>
-  <si>
-    <t>en-Executive Order 6102</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Homeowners_Refinancing_Act</t>
-  </si>
-  <si>
-    <t>en-Homeowners Refinancing Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Farm_Credit_Administration</t>
-  </si>
-  <si>
-    <t>en-Farm Credit Administration</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E7%B4%A7%E6%80%A5%E6%95%91%E6%8F%B4%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>联邦紧急救援署</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Frazier%E2%80%93Lemke_Farm_Bankruptcy_Act</t>
-  </si>
-  <si>
-    <t>en-Frazier–Lemke Farm Bankruptcy Act</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF-%E6%96%AF%E8%92%82%E6%A0%BC%E5%B0%94%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>格拉斯-斯蒂格尔法案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Housing_Act_of_1934</t>
-  </si>
-  <si>
-    <t>en-National Housing Act of 1934</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%B7%A5%E7%A8%8B%E7%AE%A1%E7%90%86%E5%B1%80</t>
-  </si>
-  <si>
-    <t>公共工程管理局</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Public_Works_of_Art_Project</t>
-  </si>
-  <si>
-    <t>en-Public Works of Art Project</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Reciprocal_Tariff_Act</t>
-  </si>
-  <si>
-    <t>en-Reciprocal Tariff Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Railroad_Retirement_Act</t>
-  </si>
-  <si>
-    <t>en-Railroad Retirement Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Federal_Art_Project</t>
-  </si>
-  <si>
-    <t>en-Federal Art Project</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Federal_Energy_Regulatory_Commission</t>
-  </si>
-  <si>
-    <t>en-Federal Energy Regulatory Commission</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Federal_Project_Number_One</t>
-  </si>
-  <si>
-    <t>en-Federal Project Number One</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Judicial_Procedures_Reform_Act</t>
-  </si>
-  <si>
-    <t>en-Judicial Procedures Reform Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Guffey_Coal_Act</t>
-  </si>
-  <si>
-    <t>en-Guffey Coal Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Labor_Relations_Board</t>
-  </si>
-  <si>
-    <t>en-National Labor Relations Board</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rural_Electrification_Act</t>
-  </si>
-  <si>
-    <t>en-Rural Electrification Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rural_Utilities_Service</t>
-  </si>
-  <si>
-    <t>en-Rural Utilities Service</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E5%AE%89%E5%85%A8%E4%BF%9D%E9%99%A9</t>
-  </si>
-  <si>
-    <t>美国社会安全保险</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Harold_L._Ickes</t>
-  </si>
-  <si>
-    <t>en-Harold L. Ickes</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF</t>
-  </si>
-  <si>
-    <t>哈里·霍普金斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E4%BC%8A%C2%B7%E7%9A%AE%E5%B0%94%E6%96%AF%C2%B7%E6%9C%97</t>
-  </si>
-  <si>
-    <t>休伊·皮尔斯·朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E8%83%A1%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>赫伯特·胡佛</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Robert_F._Wagner</t>
-  </si>
-  <si>
-    <t>en-Robert F. Wagner</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2654,7 +2642,7 @@
         <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2680,10 +2668,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2709,10 +2697,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -2738,10 +2726,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2767,10 +2755,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2796,10 +2784,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2825,10 +2813,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2854,10 +2842,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2883,10 +2871,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2912,10 +2900,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -2941,10 +2929,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2970,10 +2958,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2999,10 +2987,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3028,10 +3016,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3057,10 +3045,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3086,10 +3074,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3115,10 +3103,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3144,10 +3132,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3173,10 +3161,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -3202,10 +3190,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -3231,10 +3219,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3260,10 +3248,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3289,10 +3277,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3318,10 +3306,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -3347,10 +3335,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3376,10 +3364,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3405,10 +3393,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3434,10 +3422,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3463,10 +3451,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3492,10 +3480,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3521,10 +3509,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3550,10 +3538,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3579,10 +3567,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3608,10 +3596,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3637,10 +3625,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3666,10 +3654,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3695,10 +3683,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3724,10 +3712,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3753,10 +3741,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3782,10 +3770,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3811,10 +3799,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -3840,10 +3828,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3869,10 +3857,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>5</v>
@@ -3898,10 +3886,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3927,10 +3915,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3956,10 +3944,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3985,10 +3973,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4014,10 +4002,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4043,10 +4031,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4072,10 +4060,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4101,10 +4089,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4130,10 +4118,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4159,10 +4147,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4188,10 +4176,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4217,10 +4205,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4246,10 +4234,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4275,10 +4263,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>5</v>
@@ -4304,10 +4292,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4362,10 +4350,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4391,10 +4379,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4420,10 +4408,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4449,10 +4437,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4478,10 +4466,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4507,10 +4495,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4536,10 +4524,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4565,10 +4553,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4594,10 +4582,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4623,10 +4611,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -4652,10 +4640,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4681,10 +4669,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -4710,10 +4698,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4739,10 +4727,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4768,10 +4756,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4826,10 +4814,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4855,10 +4843,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -4884,10 +4872,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>4</v>
@@ -4913,10 +4901,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4942,10 +4930,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4971,10 +4959,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5000,10 +4988,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5029,10 +5017,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5058,10 +5046,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5087,10 +5075,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5116,10 +5104,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5145,10 +5133,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5174,10 +5162,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5203,10 +5191,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5232,10 +5220,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5261,10 +5249,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5290,10 +5278,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5319,10 +5307,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5348,10 +5336,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5377,10 +5365,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5406,10 +5394,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5435,10 +5423,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5464,10 +5452,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5493,10 +5481,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5522,10 +5510,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5551,10 +5539,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5580,10 +5568,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>54</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5609,10 +5597,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5638,10 +5626,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5667,10 +5655,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5696,10 +5684,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5725,10 +5713,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5754,10 +5742,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5783,10 +5771,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5812,10 +5800,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5841,10 +5829,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5870,10 +5858,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5899,10 +5887,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5928,10 +5916,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5957,10 +5945,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5986,10 +5974,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6015,10 +6003,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6044,10 +6032,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6073,10 +6061,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6102,10 +6090,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6131,10 +6119,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6160,10 +6148,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6189,10 +6177,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6201,6 +6189,64 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>167</v>
+      </c>
+      <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
+        <v>325</v>
+      </c>
+      <c r="G168" t="n">
+        <v>9</v>
+      </c>
+      <c r="H168" t="s">
+        <v>4</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>168</v>
+      </c>
+      <c r="E169" t="s">
+        <v>324</v>
+      </c>
+      <c r="F169" t="s">
+        <v>326</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="s">
+        <v>4</v>
+      </c>
+      <c r="I169" t="n">
         <v>3</v>
       </c>
     </row>
